--- a/graph2.xlsx
+++ b/graph2.xlsx
@@ -8,26 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/surya/Documents/physics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310932B8-53EB-EF4E-905C-0E0903671A08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F916A495-AF0D-6842-B738-91BCDB86F938}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4640" yWindow="-20940" windowWidth="37240" windowHeight="19300" activeTab="1" xr2:uid="{C1C17879-08AB-EF43-B8F0-3E4AD4D9ED7C}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{C1C17879-08AB-EF43-B8F0-3E4AD4D9ED7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$2:$D$24</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$2:$A$24</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$2:$D$24</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -359,77 +347,68 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4000000000000001E-2</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9000000000000001E-2</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4000000000000005E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8999999999999996E-2</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1</c:v>
+                  <c:v>0.115</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.105</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11</c:v>
+                  <c:v>0.126</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.115</c:v>
+                  <c:v>0.13100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.12</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.126</c:v>
+                  <c:v>0.14099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13100000000000001</c:v>
+                  <c:v>0.14599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13600000000000001</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.14099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.14599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0.157</c:v>
                 </c:pt>
               </c:numCache>
@@ -437,77 +416,68 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$24</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.09</c:v>
+                  <c:v>0.13500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.105</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13500000000000001</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15</c:v>
+                  <c:v>0.19500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16500000000000001</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18</c:v>
+                  <c:v>0.22500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19500000000000001</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21</c:v>
+                  <c:v>0.255</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.22500000000000001</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24</c:v>
+                  <c:v>0.28499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.255</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27</c:v>
+                  <c:v>0.315</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28499999999999998</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.315</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0.34499999999999997</c:v>
                 </c:pt>
               </c:numCache>
@@ -1059,8 +1029,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1102,77 +1071,68 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4000000000000001E-2</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9000000000000001E-2</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4000000000000005E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8999999999999996E-2</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1</c:v>
+                  <c:v>0.115</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.105</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11</c:v>
+                  <c:v>0.126</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.115</c:v>
+                  <c:v>0.13100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.12</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.126</c:v>
+                  <c:v>0.14099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13100000000000001</c:v>
+                  <c:v>0.14599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13600000000000001</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.14099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.14599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0.157</c:v>
                 </c:pt>
               </c:numCache>
@@ -1180,77 +1140,68 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$24</c:f>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.89500000000000002</c:v>
+                  <c:v>2.927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.901</c:v>
+                  <c:v>2.9340000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6419999999999999</c:v>
+                  <c:v>2.923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.927</c:v>
+                  <c:v>2.9119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9340000000000002</c:v>
+                  <c:v>2.9079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.923</c:v>
+                  <c:v>2.9009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9119999999999999</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9079999999999999</c:v>
+                  <c:v>2.903</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2.9020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2.9009999999999998</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.903</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.9020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.903</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9039999999999999</c:v>
+                  <c:v>2.887</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.91</c:v>
+                  <c:v>2.8879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.9009999999999998</c:v>
+                  <c:v>2.879</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.887</c:v>
+                  <c:v>2.8769999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8879999999999999</c:v>
+                  <c:v>2.8820000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.879</c:v>
+                  <c:v>2.8809999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8769999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.8820000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.8809999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>2.883</c:v>
                 </c:pt>
               </c:numCache>
@@ -1278,6 +1229,7 @@
         <c:axId val="1220724016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1423,6 +1375,8 @@
         <c:axId val="1284040208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1801,8 +1755,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1885,77 +1838,68 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4000000000000001E-2</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9000000000000001E-2</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4000000000000005E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8999999999999996E-2</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1</c:v>
+                  <c:v>0.115</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.105</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11</c:v>
+                  <c:v>0.126</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.115</c:v>
+                  <c:v>0.13100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.12</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.126</c:v>
+                  <c:v>0.14099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13100000000000001</c:v>
+                  <c:v>0.14599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13600000000000001</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.14099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.14599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0.157</c:v>
                 </c:pt>
               </c:numCache>
@@ -1963,77 +1907,68 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$24</c:f>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>26.68</c:v>
+                  <c:v>2.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>118.29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107.84</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.78</c:v>
+                  <c:v>-0.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4</c:v>
+                  <c:v>-1.19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.33</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.53</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.19</c:v>
+                  <c:v>-0.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33</c:v>
+                  <c:v>-0.98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.65</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>-6.94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.98</c:v>
+                  <c:v>1.71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.94</c:v>
+                  <c:v>-1.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.71</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.5</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.8</c:v>
+                  <c:v>-0.96</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.96</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>1.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -4100,16 +4035,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>766763</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>192088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4138,16 +4073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>456672</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>77788</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4175,210 +4110,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Graph 1. Position is directly proportional to time
- Distance (m)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1.6E-2</v>
-          </cell>
-          <cell r="B2">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>3.3000000000000002E-2</v>
-          </cell>
-          <cell r="B3">
-            <v>0.03</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>4.9000000000000002E-2</v>
-          </cell>
-          <cell r="B4">
-            <v>4.4999999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>6.6000000000000003E-2</v>
-          </cell>
-          <cell r="B5">
-            <v>0.06</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>8.2000000000000003E-2</v>
-          </cell>
-          <cell r="B6">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>9.9000000000000005E-2</v>
-          </cell>
-          <cell r="B7">
-            <v>0.09</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>0.11600000000000001</v>
-          </cell>
-          <cell r="B8">
-            <v>0.105</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>0.13200000000000001</v>
-          </cell>
-          <cell r="B9">
-            <v>0.12</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>0.14899999999999999</v>
-          </cell>
-          <cell r="B10">
-            <v>0.13500000000000001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>0.16600000000000001</v>
-          </cell>
-          <cell r="B11">
-            <v>0.15</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>0.182</v>
-          </cell>
-          <cell r="B12">
-            <v>0.16500000000000001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>0.19900000000000001</v>
-          </cell>
-          <cell r="B13">
-            <v>0.18</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>0.216</v>
-          </cell>
-          <cell r="B14">
-            <v>0.19500000000000001</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>0.23300000000000001</v>
-          </cell>
-          <cell r="B15">
-            <v>0.21</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>0.25</v>
-          </cell>
-          <cell r="B16">
-            <v>0.22500000000000001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>0.26700000000000002</v>
-          </cell>
-          <cell r="B17">
-            <v>0.24</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>0.28399999999999997</v>
-          </cell>
-          <cell r="B18">
-            <v>0.255</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>0.30099999999999999</v>
-          </cell>
-          <cell r="B19">
-            <v>0.27</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>0.318</v>
-          </cell>
-          <cell r="B20">
-            <v>0.28499999999999998</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>0.33500000000000002</v>
-          </cell>
-          <cell r="B21">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>0.35199999999999998</v>
-          </cell>
-          <cell r="B22">
-            <v>0.315</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>0.36899999999999999</v>
-          </cell>
-          <cell r="B23">
-            <v>0.33</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>0.38600000000000001</v>
-          </cell>
-          <cell r="B24">
-            <v>0.34499999999999997</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4678,10 +4409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD31552-86D3-3C40-9C5D-A6D7DB7D319D}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4702,323 +4433,281 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="B2" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C2" s="1">
-        <v>0.89500000000000002</v>
+        <v>2.927</v>
       </c>
       <c r="D2" s="1">
-        <v>26.68</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>4.7E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.03</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>1.901</v>
+        <v>2.9340000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>118.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>5.2999999999999999E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="B4" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C4" s="1">
-        <v>2.6419999999999999</v>
+        <v>2.923</v>
       </c>
       <c r="D4" s="1">
-        <v>107.84</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>5.8999999999999997E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.06</v>
+        <v>0.105</v>
       </c>
       <c r="C5" s="1">
-        <v>2.927</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>2.78</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>6.4000000000000001E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="B6" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C6" s="1">
-        <v>2.9340000000000002</v>
+        <v>2.9079999999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6.9000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="B7" s="1">
-        <v>0.09</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>2.923</v>
+        <v>2.9009999999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-4</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7.3999999999999996E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="B8" s="1">
-        <v>0.105</v>
+        <v>0.15</v>
       </c>
       <c r="C8" s="1">
-        <v>2.9119999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="D8" s="1">
-        <v>-0.33</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7.9000000000000001E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="B9" s="1">
-        <v>0.12</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>2.9079999999999999</v>
+        <v>2.903</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.53</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8.4000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="B10" s="1">
-        <v>0.13500000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="C10" s="1">
-        <v>2.9009999999999998</v>
+        <v>2.9020000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-1.19</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>8.8999999999999996E-2</v>
+        <v>0.105</v>
       </c>
       <c r="B11" s="1">
-        <v>0.15</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>2.9</v>
+        <v>2.903</v>
       </c>
       <c r="D11" s="1">
-        <v>0.87</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>0.11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.16500000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="C12" s="1">
-        <v>2.903</v>
+        <v>2.9039999999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>0.33</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>0.1</v>
+        <v>0.115</v>
       </c>
       <c r="B13" s="1">
-        <v>0.18</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>2.9020000000000001</v>
+        <v>2.91</v>
       </c>
       <c r="D13" s="1">
-        <v>-0.65</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>0.105</v>
+        <v>0.12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.19500000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="C14" s="1">
-        <v>2.903</v>
+        <v>2.9009999999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>1.2</v>
+        <v>-6.94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>0.11</v>
+        <v>0.126</v>
       </c>
       <c r="B15" s="1">
-        <v>0.21</v>
+        <v>0.255</v>
       </c>
       <c r="C15" s="1">
-        <v>2.9039999999999999</v>
+        <v>2.887</v>
       </c>
       <c r="D15" s="1">
-        <v>-0.98</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>0.115</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="B16" s="1">
-        <v>0.22500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="C16" s="1">
-        <v>2.91</v>
+        <v>2.8879999999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>3.4</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>0.12</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="B17" s="1">
-        <v>0.24</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>2.9009999999999998</v>
+        <v>2.879</v>
       </c>
       <c r="D17" s="1">
-        <v>-6.94</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>0.126</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="B18" s="1">
-        <v>0.255</v>
+        <v>0.3</v>
       </c>
       <c r="C18" s="1">
-        <v>2.887</v>
+        <v>2.8769999999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>1.71</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>0.13100000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="B19" s="1">
-        <v>0.27</v>
+        <v>0.315</v>
       </c>
       <c r="C19" s="1">
-        <v>2.8879999999999999</v>
+        <v>2.8820000000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-1.5</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>0.13600000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="B20" s="1">
-        <v>0.28499999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="C20" s="1">
-        <v>2.879</v>
+        <v>2.8809999999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-1.8</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>0.14099999999999999</v>
+        <v>0.157</v>
       </c>
       <c r="B21" s="1">
-        <v>0.3</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>2.8769999999999998</v>
+        <v>2.883</v>
       </c>
       <c r="D21" s="1">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.315</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2.8820000000000001</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>0.152</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2.8809999999999998</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-0.96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>0.157</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2.883</v>
-      </c>
-      <c r="D24" s="1">
         <v>1.6</v>
       </c>
     </row>
@@ -5031,7 +4720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112A8F1C-4189-AB41-8636-40285C1DDA1C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="50" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
